--- a/HealthandSocialServices.xlsx
+++ b/HealthandSocialServices.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amandaljuba/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amandaljuba/Downloads/DSPG-R-Training/2022_DSPG_Loudoun/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F71DDC7-37A1-8345-9739-61321489DAD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14D722C3-A1DD-6745-951F-D4D176588F87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" activeTab="2" xr2:uid="{C2343199-C9B2-344C-BAE9-B0A04F918DEC}"/>
+    <workbookView xWindow="3080" yWindow="500" windowWidth="25720" windowHeight="15720" activeTab="2" xr2:uid="{C2343199-C9B2-344C-BAE9-B0A04F918DEC}"/>
   </bookViews>
   <sheets>
     <sheet name="Food" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
   <si>
     <t>Latitude</t>
   </si>
@@ -108,9 +108,6 @@
   </si>
   <si>
     <t>VisionWorks</t>
-  </si>
-  <si>
-    <t>,-77.4132603</t>
   </si>
   <si>
     <t>Location</t>
@@ -622,7 +619,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -710,7 +707,7 @@
   <dimension ref="A1:C1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -721,7 +718,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -792,8 +789,8 @@
       <c r="B7" s="1">
         <v>39.037760200000001</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
+      <c r="C7">
+        <v>-77.413260300000005</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="17" x14ac:dyDescent="0.2">
